--- a/final_project/Nucleotide_Freq.xlsx
+++ b/final_project/Nucleotide_Freq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="440" windowWidth="24700" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="900" yWindow="440" windowWidth="24700" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,8 +319,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
@@ -348,8 +349,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2025,15 +2027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2320,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -2716,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/final_project/Nucleotide_Freq.xlsx
+++ b/final_project/Nucleotide_Freq.xlsx
@@ -13,17 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Dinuc" sheetId="1" r:id="rId1"/>
-    <sheet name="F1 comparison" sheetId="4" r:id="rId2"/>
-    <sheet name="Nuc Freq" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="2" r:id="rId4"/>
-    <sheet name="Diamino Freq" sheetId="5" r:id="rId5"/>
+    <sheet name="ORF Finder" sheetId="6" r:id="rId2"/>
+    <sheet name="F1 comparison" sheetId="4" r:id="rId3"/>
+    <sheet name="Nuc Freq" sheetId="3" r:id="rId4"/>
+    <sheet name="Summary" sheetId="2" r:id="rId5"/>
+    <sheet name="Diamino Freq" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="diamino_out_16" localSheetId="4">'Diamino Freq'!$A$2:$B$401</definedName>
-    <definedName name="diamino_out_20" localSheetId="4">'Diamino Freq'!$E$1:$E$1</definedName>
-    <definedName name="diamino_out_29" localSheetId="4">'Diamino Freq'!$H$3:$I$402</definedName>
-    <definedName name="diamino_out_44" localSheetId="4">'Diamino Freq'!$I$2:$J$401</definedName>
-    <definedName name="diamino_out_47" localSheetId="4">'Diamino Freq'!$J$1:$K$400</definedName>
+    <definedName name="diamino_out_16" localSheetId="5">'Diamino Freq'!$A$2:$B$401</definedName>
+    <definedName name="diamino_out_20" localSheetId="5">'Diamino Freq'!$E$1:$E$1</definedName>
+    <definedName name="diamino_out_29" localSheetId="5">'Diamino Freq'!$H$3:$I$402</definedName>
+    <definedName name="diamino_out_44" localSheetId="5">'Diamino Freq'!$I$2:$J$401</definedName>
+    <definedName name="diamino_out_47" localSheetId="5">'Diamino Freq'!$J$1:$K$400</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="459">
   <si>
     <t>AA</t>
   </si>
@@ -1533,12 +1534,21 @@
   <si>
     <t>F1-Score</t>
   </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Gene count from reference</t>
+  </si>
+  <si>
+    <t>Gene count from ORF finder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1630,6 +1640,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1657,7 +1678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1752,6 +1773,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1780,7 +1810,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1851,6 +1881,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -6946,9 +7000,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="37">
+        <v>7406</v>
+      </c>
+      <c r="C2" s="38">
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="37">
+        <v>5806</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
+        <v>232</v>
+      </c>
+      <c r="C4" s="38">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1967</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="40">
+        <v>2104</v>
+      </c>
+      <c r="C6" s="41">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -7412,7 +7551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -7566,7 +7705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -7710,7 +7849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F401"/>
   <sheetViews>
